--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
   </si>
   <si>
     <t>password123</t>
@@ -481,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -510,11 +507,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -522,30 +519,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -563,15 +552,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -579,7 +568,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -594,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -608,16 +597,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -625,53 +614,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>123456789</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>987654321</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>555123456</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
